--- a/biology/Biochimie/Structure_tertiaire/Structure_tertiaire.xlsx
+++ b/biology/Biochimie/Structure_tertiaire/Structure_tertiaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, la structure tertiaire ou tridimensionnelle est le repliement dans l'espace d'une chaîne polypeptidique. Ce repliement donne sa fonctionnalité à la protéine, notamment par la formation du site actif des enzymes. Une phrase célèbre résume bien ce fait : « si vous ne comprenez pas sa fonction, étudiez sa structure »[réf. nécessaire].
 La structure tertiaire correspond au degré d'organisation supérieur aux hélices α ou aux feuillets β. Ces protéines possèdent des structures secondaires associées le long de la chaîne polypeptidique. Le repliement et la stabilisation de protéines à structure tertiaire dépend de plusieurs types de liaisons faibles qui stabilisent l'édifice moléculaire. 
@@ -513,7 +525,9 @@
           <t>Détermination expérimentale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principales méthodes de détermination expérimentale des structures tertiaires des protéines sont :
 la cristallographie aux rayons X, la technique la plus utilisé ;
